--- a/test_input/example.xlsx
+++ b/test_input/example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>position</t>
   </si>
@@ -127,6 +127,26 @@
   </si>
   <si>
     <t>3,3,"你的"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这都是注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不会导表 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.375" style="1" customWidth="1"/>
@@ -490,9 +510,9 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -501,15 +521,18 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -518,15 +541,15 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -535,15 +558,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -552,15 +578,18 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -569,15 +598,18 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -586,10 +618,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
